--- a/data/trans_camb/P27A_10-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P27A_10-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 2,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 5,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 1,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 18,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 0,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 9,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-19,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-23,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-21,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,12; 29,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 57,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,38; 17,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,09; 181,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,29; 6,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 96,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 4,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 1,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 5,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 1,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 1,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-28,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-26,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-15,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,24; 65,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,96; 31,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,55; 32,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,71; 66,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 25,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 25,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 12,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 11,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 8,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 5,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 8,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 5,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-11,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-40,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,45%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,81; 149,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 127,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,98; 173,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-90,3; 170,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,22; 97,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-62,1; 65,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 2,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 2,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 0,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 8,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 0,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 4,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-11,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-23,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-17,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-36,23; 23,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-37,14; 23,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 7,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 86,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 3,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,67; 40,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
